--- a/3 am/1 المجدول/الصيغ 2/cours 7/كشف النقاط.xlsx
+++ b/3 am/1 المجدول/الصيغ 2/cours 7/كشف النقاط.xlsx
@@ -100,14 +100,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -115,20 +115,20 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -552,24 +552,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -595,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="7">
         <f>D3*E3</f>
@@ -621,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6">
@@ -641,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6">
@@ -661,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6">
@@ -681,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6">
@@ -701,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6">
@@ -721,7 +722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6">
@@ -741,7 +742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6">
@@ -761,7 +762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6">
@@ -781,7 +782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6">
@@ -801,7 +802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6">
@@ -821,7 +822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6">
@@ -841,7 +842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -861,7 +862,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:9" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f>C15/D15</f>
         <v>1.9285714285714286</v>
